--- a/Data/Gene_list.xlsx
+++ b/Data/Gene_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\lab data\Glioblastoma\Github\5ALA-Infiltrative-GBM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF3DFB8-522F-48F6-9C47-0B3C94AC807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F31BB-3E3B-40AC-87F5-5033D3DA0F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4F712925-5AA1-4509-AC2D-F34C9816336E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4F712925-5AA1-4509-AC2D-F34C9816336E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="446">
   <si>
     <t>NR4A3</t>
   </si>
@@ -1240,6 +1240,129 @@
   </si>
   <si>
     <t>Inf_wound</t>
+  </si>
+  <si>
+    <t>Malta_et_al</t>
+  </si>
+  <si>
+    <t>Stem_Cell_marker_DB</t>
+  </si>
+  <si>
+    <t>ABCG2</t>
+  </si>
+  <si>
+    <t>NANOG</t>
+  </si>
+  <si>
+    <t>ZSCAN4</t>
+  </si>
+  <si>
+    <t>ZFP42</t>
+  </si>
+  <si>
+    <t>TWIST1</t>
+  </si>
+  <si>
+    <t>PROM1</t>
+  </si>
+  <si>
+    <t>EZH2</t>
+  </si>
+  <si>
+    <t>KDM5B</t>
+  </si>
+  <si>
+    <t>NES</t>
+  </si>
+  <si>
+    <t>CD34</t>
+  </si>
+  <si>
+    <t>CTNNB1</t>
+  </si>
+  <si>
+    <t>MYC</t>
+  </si>
+  <si>
+    <t>EPAS1</t>
+  </si>
+  <si>
+    <t>HMOX1</t>
+  </si>
+  <si>
+    <t>CXCR4</t>
+  </si>
+  <si>
+    <t>PTPRC</t>
+  </si>
+  <si>
+    <t>CD81</t>
+  </si>
+  <si>
+    <t>SCAMP3</t>
+  </si>
+  <si>
+    <t>SLITRK6</t>
+  </si>
+  <si>
+    <t>ALDH1A1</t>
+  </si>
+  <si>
+    <t>CDH5</t>
+  </si>
+  <si>
+    <t>ITGA6</t>
+  </si>
+  <si>
+    <t>ASCL1</t>
+  </si>
+  <si>
+    <t>DCX</t>
+  </si>
+  <si>
+    <t>CHD7</t>
+  </si>
+  <si>
+    <t>TCF7L2</t>
+  </si>
+  <si>
+    <t>NFIB</t>
+  </si>
+  <si>
+    <t>CCND2</t>
+  </si>
+  <si>
+    <t>MSI1</t>
+  </si>
+  <si>
+    <t>ADGRG1</t>
+  </si>
+  <si>
+    <t>SOX9</t>
+  </si>
+  <si>
+    <t>HOXD9</t>
+  </si>
+  <si>
+    <t>SLC2A3</t>
+  </si>
+  <si>
+    <t>VIM</t>
+  </si>
+  <si>
+    <t>HMGB2</t>
+  </si>
+  <si>
+    <t>MKI67</t>
+  </si>
+  <si>
+    <t>CADM1</t>
+  </si>
+  <si>
+    <t>ITGB1</t>
+  </si>
+  <si>
+    <t>MCAM</t>
   </si>
 </sst>
 </file>
@@ -1608,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A028D0C-BBC1-4697-A02E-03C1A15FFA94}">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,9 +1747,12 @@
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -1660,8 +1786,14 @@
       <c r="K1" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -1695,8 +1827,14 @@
       <c r="K2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -1730,8 +1868,14 @@
       <c r="K3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -1765,8 +1909,14 @@
       <c r="K4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>408</v>
+      </c>
+      <c r="M4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
@@ -1800,8 +1950,14 @@
       <c r="K5" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>409</v>
+      </c>
+      <c r="M5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
@@ -1835,8 +1991,14 @@
       <c r="K6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>410</v>
+      </c>
+      <c r="M6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>89</v>
       </c>
@@ -1870,8 +2032,14 @@
       <c r="K7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -1905,8 +2073,14 @@
       <c r="K8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>412</v>
+      </c>
+      <c r="M8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
@@ -1940,8 +2114,14 @@
       <c r="K9" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>413</v>
+      </c>
+      <c r="M9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
@@ -1975,8 +2155,14 @@
       <c r="K10" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>414</v>
+      </c>
+      <c r="M10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
@@ -2008,8 +2194,14 @@
       <c r="K11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>415</v>
+      </c>
+      <c r="M11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -2041,8 +2233,14 @@
       <c r="K12" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>416</v>
+      </c>
+      <c r="M12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>96</v>
       </c>
@@ -2074,8 +2272,14 @@
       <c r="K13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>417</v>
+      </c>
+      <c r="M13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2107,8 +2311,14 @@
       <c r="K14" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>418</v>
+      </c>
+      <c r="M14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -2137,8 +2347,14 @@
       <c r="K15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
@@ -2167,8 +2383,14 @@
       <c r="K16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>419</v>
+      </c>
+      <c r="M16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>99</v>
       </c>
@@ -2197,8 +2419,11 @@
       <c r="K17" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>100</v>
       </c>
@@ -2227,8 +2452,11 @@
       <c r="K18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>101</v>
       </c>
@@ -2257,8 +2485,11 @@
       <c r="K19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>102</v>
       </c>
@@ -2287,8 +2518,11 @@
       <c r="K20" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>103</v>
       </c>
@@ -2317,8 +2551,11 @@
       <c r="K21" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2347,8 +2584,11 @@
       <c r="K22" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>104</v>
       </c>
@@ -2377,8 +2617,11 @@
       <c r="K23" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>105</v>
       </c>
@@ -2407,8 +2650,11 @@
       <c r="K24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>106</v>
       </c>
@@ -2437,8 +2683,11 @@
       <c r="K25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>76</v>
       </c>
@@ -2467,8 +2716,11 @@
       <c r="K26" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
@@ -2497,8 +2749,11 @@
       <c r="K27" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -2528,7 +2783,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>107</v>
       </c>
@@ -2556,7 +2811,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>108</v>
       </c>
@@ -2584,7 +2839,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>109</v>
       </c>
@@ -2612,7 +2867,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>110</v>
       </c>
